--- a/biology/Histoire de la zoologie et de la botanique/Marie_Phisalix/Marie_Phisalix.xlsx
+++ b/biology/Histoire de la zoologie et de la botanique/Marie_Phisalix/Marie_Phisalix.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Marie Phisalix, née Marie Félicie Picot à Besançon (actuelle région Bourgogne-Franche-Comté) le 20 novembre 1861 et morte à Sèvres le 18 janvier 1946 est une zoologue et biologiste française.
 </t>
@@ -511,15 +523,17 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Marie Phisalix entre à l'École Normale Supérieure des jeunes filles de Sèvres en 1882[1]. Elle est agrégée de Sciences en 1888. C'est à Besançon, où elle enseigne et mène des études de médecine, qu'elle rencontre Césaire Phisalix qui devient son mari en 1895. 
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Marie Phisalix entre à l'École Normale Supérieure des jeunes filles de Sèvres en 1882. Elle est agrégée de Sciences en 1888. C'est à Besançon, où elle enseigne et mène des études de médecine, qu'elle rencontre Césaire Phisalix qui devient son mari en 1895. 
 Elle le suit à Paris, où elle collabore aux travaux qu'il mène au muséum national d'histoire naturelle.
 En 1900, elle soutient une thèse de médecine intitulée "Recherches histologiques, embryologiques et physiologiques sur les glandes à venin de la salamandre terrestre" et obtient la médaille d'argent de la Faculté de Paris, devenant l'une des premières françaises médecin. À la mort de son mari, en 1906, elle poursuit ses recherches puis, en 1910, entre au laboratoire d'herpétologie du muséum où elle mène des études sur les batraciens et reptiles devenant une herpétologue réputée.
 Marie Phisalix est aussi une militante féministe : vice-présidente de l'Association pour l'amélioration du sort de la femme (1945), elle anime une réunion de la Ligue française pour le droit des femmes.
-Elle crée, en 1907, un musée d'histoire naturelle à Mouthier-Haute-Pierre[2], musée qui porte son nom et est ouvert gratuitement. 
-Elle meurt à Paris le 18 janvier 1946. Elle est inhumée à Mouthier-Haute-Pierre auprès de son mari[3]. 
-Elle laisse de nombreuses publications scientifiques[4] et un ouvrage : "Animaux venimeux et venins".
+Elle crée, en 1907, un musée d'histoire naturelle à Mouthier-Haute-Pierre, musée qui porte son nom et est ouvert gratuitement. 
+Elle meurt à Paris le 18 janvier 1946. Elle est inhumée à Mouthier-Haute-Pierre auprès de son mari. 
+Elle laisse de nombreuses publications scientifiques et un ouvrage : "Animaux venimeux et venins".
 </t>
         </is>
       </c>
@@ -548,7 +562,9 @@
           <t>Publications</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Animaux venimeux et venins, Masson, 1922, 657 p. (lire en ligne).
 Vipères de France : leur biologie, leur appareil venimeux et le traitement de leurs morsures, 1940.</t>
@@ -579,12 +595,14 @@
           <t>Distinctions</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve"> Officier d'Académie
  Chevalière de la Légion d'honneur
  Officier de l'Instruction publique
-Chevalier de la Légion d'honneur, membre de l'Académie de Besançon, elle a reçu de nombreuses distinctions : officier d'Académie, officier de l'Instruction publique, Prix Bréant[5] (2 fois). 
+Chevalier de la Légion d'honneur, membre de l'Académie de Besançon, elle a reçu de nombreuses distinctions : officier d'Académie, officier de l'Instruction publique, Prix Bréant (2 fois). 
 </t>
         </is>
       </c>
@@ -613,7 +631,9 @@
           <t>Postérité</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t xml:space="preserve">Une rue de Besançon porte son nom.
 </t>
